--- a/outputs-HGR-r202-archive/g__Enterococcus_D_train.xlsx
+++ b/outputs-HGR-r202-archive/g__Enterococcus_D_train.xlsx
@@ -502,7 +502,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -582,17 +582,17 @@
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>label_20298_3_12_10.fasta</t>
+          <t>label_20298_3_12_3.fasta</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3712375139706886</v>
+        <v>0.4105478852015383</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6287624860293114</v>
+        <v>0.5894521147984617</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6287624860293114</v>
+        <v>0.5894521147984617</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -603,17 +603,17 @@
     <row r="5">
       <c r="A5" s="11" t="inlineStr">
         <is>
-          <t>label_20298_3_12_3.fasta</t>
+          <t>label_20298_3_12_7.fasta</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4105478852015383</v>
+        <v>0.3438152399780758</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5894521147984617</v>
+        <v>0.6561847600219242</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5894521147984617</v>
+        <v>0.6561847600219242</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -624,17 +624,17 @@
     <row r="6">
       <c r="A6" s="11" t="inlineStr">
         <is>
-          <t>label_20298_3_12_7.fasta</t>
+          <t>label_20298_3_12_9.fasta</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.3438152399780758</v>
+        <v>0.3505624072871936</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6561847600219242</v>
+        <v>0.6494375927128064</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6561847600219242</v>
+        <v>0.6494375927128064</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -645,17 +645,17 @@
     <row r="7">
       <c r="A7" s="11" t="inlineStr">
         <is>
-          <t>label_20298_3_12_9.fasta</t>
+          <t>label_20298_3_12_0.fasta</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3505624072871936</v>
+        <v>0.3382484974024648</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6494375927128064</v>
+        <v>0.6617515025975352</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6494375927128064</v>
+        <v>0.6617515025975352</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -666,17 +666,17 @@
     <row r="8">
       <c r="A8" s="11" t="inlineStr">
         <is>
-          <t>label_20298_3_12_0.fasta</t>
+          <t>label_20298_3_12_1.fasta</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.3382484974024648</v>
+        <v>0.326507150519432</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6617515025975352</v>
+        <v>0.673492849480568</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6617515025975352</v>
+        <v>0.673492849480568</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -687,17 +687,17 @@
     <row r="9">
       <c r="A9" s="11" t="inlineStr">
         <is>
-          <t>label_20298_3_12_1.fasta</t>
+          <t>label_20298_3_12_8.fasta</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.326507150519432</v>
+        <v>0.2863578629896424</v>
       </c>
       <c r="C9" t="n">
-        <v>0.673492849480568</v>
+        <v>0.7136421370103576</v>
       </c>
       <c r="D9" t="n">
-        <v>0.673492849480568</v>
+        <v>0.7136421370103576</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -708,17 +708,17 @@
     <row r="10">
       <c r="A10" s="11" t="inlineStr">
         <is>
-          <t>label_20298_3_12_8.fasta</t>
+          <t>label_20298_3_12_2.fasta</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.2863578629896424</v>
+        <v>0.3028351280283332</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7136421370103576</v>
+        <v>0.6971648719716668</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7136421370103576</v>
+        <v>0.6971648719716668</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -729,17 +729,17 @@
     <row r="11">
       <c r="A11" s="11" t="inlineStr">
         <is>
-          <t>label_20298_3_12_2.fasta</t>
+          <t>label_20298_3_12_4.fasta</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.3028351280283332</v>
+        <v>0.3031459796096115</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6971648719716668</v>
+        <v>0.6968540203903885</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6971648719716668</v>
+        <v>0.6968540203903885</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -750,17 +750,17 @@
     <row r="12">
       <c r="A12" s="11" t="inlineStr">
         <is>
-          <t>label_20298_3_12_4.fasta</t>
+          <t>label_20298_3_12_5.fasta</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3031459796096115</v>
+        <v>0.3022807123251919</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6968540203903885</v>
+        <v>0.6977192876748081</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6968540203903885</v>
+        <v>0.6977192876748081</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -771,17 +771,17 @@
     <row r="13">
       <c r="A13" s="11" t="inlineStr">
         <is>
-          <t>label_20298_3_12_5.fasta</t>
+          <t>label_20298_3_12_11.fasta</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3022807123251919</v>
+        <v>0.3014691423306537</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6977192876748081</v>
+        <v>0.6985308576693463</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6977192876748081</v>
+        <v>0.6985308576693463</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -792,40 +792,19 @@
     <row r="14">
       <c r="A14" s="11" t="inlineStr">
         <is>
-          <t>label_20298_3_12_11.fasta</t>
+          <t>label_20298_3_12_6.fasta</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.3014691423306537</v>
+        <v>0.3367919467890876</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6985308576693463</v>
+        <v>0.6632080532109124</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6985308576693463</v>
+        <v>0.6632080532109124</v>
       </c>
       <c r="E14" t="inlineStr">
-        <is>
-          <t>s__Enterococcus_D sp002850555</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="11" t="inlineStr">
-        <is>
-          <t>label_20298_3_12_6.fasta</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>0.3367919467890876</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.6632080532109124</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.6632080532109124</v>
-      </c>
-      <c r="E15" t="inlineStr">
         <is>
           <t>s__Enterococcus_D sp002850555</t>
         </is>
@@ -842,7 +821,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -985,17 +964,17 @@
     <row r="7">
       <c r="A7" s="11" t="inlineStr">
         <is>
-          <t>label_14670_1_61_10.fasta</t>
+          <t>label_14670_1_61_0.fasta</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4388567367870388</v>
+        <v>0.1903229077903171</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5611432632129612</v>
+        <v>0.8096770922096829</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5611432632129612</v>
+        <v>0.8096770922096829</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -1006,17 +985,17 @@
     <row r="8">
       <c r="A8" s="11" t="inlineStr">
         <is>
-          <t>label_14670_1_61_13.fasta</t>
+          <t>label_14670_1_61_11.fasta</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.4872818720297708</v>
+        <v>0.1990689878074682</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5127181279702292</v>
+        <v>0.8009310121925318</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5127181279702292</v>
+        <v>0.8009310121925318</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -1027,17 +1006,17 @@
     <row r="9">
       <c r="A9" s="11" t="inlineStr">
         <is>
-          <t>label_14670_1_61_2.fasta</t>
+          <t>label_14670_1_61_23.fasta</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1955085486198381</v>
+        <v>0.09205597953154943</v>
       </c>
       <c r="C9" t="n">
-        <v>0.804491451380162</v>
+        <v>0.9079440204684506</v>
       </c>
       <c r="D9" t="n">
-        <v>0.804491451380162</v>
+        <v>0.9079440204684506</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -1048,17 +1027,17 @@
     <row r="10">
       <c r="A10" s="11" t="inlineStr">
         <is>
-          <t>label_14670_1_61_25.fasta</t>
+          <t>label_14670_1_61_3.fasta</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0001144720233634544</v>
+        <v>0.1720219213996897</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9998855279766365</v>
+        <v>0.8279780786003103</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9998855279766365</v>
+        <v>0.8279780786003103</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -1069,17 +1048,17 @@
     <row r="11">
       <c r="A11" s="11" t="inlineStr">
         <is>
-          <t>label_14670_1_61_4.fasta</t>
+          <t>label_14670_1_61_5.fasta</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2058640575183324</v>
+        <v>0.3065232622602516</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7941359424816676</v>
+        <v>0.6934767377397484</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7941359424816676</v>
+        <v>0.6934767377397484</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -1090,17 +1069,17 @@
     <row r="12">
       <c r="A12" s="11" t="inlineStr">
         <is>
-          <t>label_14670_1_61_6.fasta</t>
+          <t>label_14670_1_61_1.fasta</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2797136623393663</v>
+        <v>0.2682809640504223</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7202863376606337</v>
+        <v>0.7317190359495777</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7202863376606337</v>
+        <v>0.7317190359495777</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1111,17 +1090,17 @@
     <row r="13">
       <c r="A13" s="11" t="inlineStr">
         <is>
-          <t>label_14670_1_61_0.fasta</t>
+          <t>label_14670_1_61_16.fasta</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.1903229077903171</v>
+        <v>0.2502618513024991</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8096770922096829</v>
+        <v>0.7497381486975009</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8096770922096829</v>
+        <v>0.7497381486975009</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1132,17 +1111,17 @@
     <row r="14">
       <c r="A14" s="11" t="inlineStr">
         <is>
-          <t>label_14670_1_61_11.fasta</t>
+          <t>label_14670_1_61_18.fasta</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.1990689878074682</v>
+        <v>0.2633609451577829</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8009310121925318</v>
+        <v>0.7366390548422171</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8009310121925318</v>
+        <v>0.7366390548422171</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1153,17 +1132,17 @@
     <row r="15">
       <c r="A15" s="11" t="inlineStr">
         <is>
-          <t>label_14670_1_61_23.fasta</t>
+          <t>label_14670_1_61_24.fasta</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.09205597953154943</v>
+        <v>0.09910672559793565</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9079440204684506</v>
+        <v>0.9008932744020643</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9079440204684506</v>
+        <v>0.9008932744020643</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1174,17 +1153,17 @@
     <row r="16">
       <c r="A16" s="11" t="inlineStr">
         <is>
-          <t>label_14670_1_61_3.fasta</t>
+          <t>label_14670_1_61_9.fasta</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1720219213996897</v>
+        <v>0.2718954337535665</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8279780786003103</v>
+        <v>0.7281045662464335</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8279780786003103</v>
+        <v>0.7281045662464335</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1195,17 +1174,17 @@
     <row r="17">
       <c r="A17" s="11" t="inlineStr">
         <is>
-          <t>label_14670_1_61_5.fasta</t>
+          <t>label_14670_1_61_14.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.3065232622602516</v>
+        <v>0.2978220163379978</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6934767377397484</v>
+        <v>0.7021779836620022</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6934767377397484</v>
+        <v>0.7021779836620022</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1216,17 +1195,17 @@
     <row r="18">
       <c r="A18" s="11" t="inlineStr">
         <is>
-          <t>label_14670_1_61_1.fasta</t>
+          <t>label_14670_1_61_17.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.2682809640504223</v>
+        <v>0.2963902179032301</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7317190359495777</v>
+        <v>0.7036097820967699</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7317190359495777</v>
+        <v>0.7036097820967699</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1237,17 +1216,17 @@
     <row r="19">
       <c r="A19" s="11" t="inlineStr">
         <is>
-          <t>label_14670_1_61_16.fasta</t>
+          <t>label_14670_1_61_19.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.2502618513024991</v>
+        <v>0.2959289686117028</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7497381486975009</v>
+        <v>0.7040710313882972</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7497381486975009</v>
+        <v>0.7040710313882972</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1258,17 +1237,17 @@
     <row r="20">
       <c r="A20" s="11" t="inlineStr">
         <is>
-          <t>label_14670_1_61_18.fasta</t>
+          <t>label_14670_1_61_21.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.2633609451577829</v>
+        <v>0.2758148653012076</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7366390548422171</v>
+        <v>0.7241851346987924</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7366390548422171</v>
+        <v>0.7241851346987924</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1279,17 +1258,17 @@
     <row r="21">
       <c r="A21" s="11" t="inlineStr">
         <is>
-          <t>label_14670_1_61_24.fasta</t>
+          <t>label_14670_1_61_22.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.09910672559793565</v>
+        <v>0.2712471782821321</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9008932744020643</v>
+        <v>0.7287528217178679</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9008932744020643</v>
+        <v>0.7287528217178679</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1300,17 +1279,17 @@
     <row r="22">
       <c r="A22" s="11" t="inlineStr">
         <is>
-          <t>label_14670_1_61_9.fasta</t>
+          <t>label_14670_1_61_12.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.2718954337535665</v>
+        <v>0.321495600797041</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7281045662464335</v>
+        <v>0.678504399202959</v>
       </c>
       <c r="D22" t="n">
-        <v>0.7281045662464335</v>
+        <v>0.678504399202959</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1321,17 +1300,17 @@
     <row r="23">
       <c r="A23" s="11" t="inlineStr">
         <is>
-          <t>label_14670_1_61_14.fasta</t>
+          <t>label_14670_1_61_15.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.2978220163379978</v>
+        <v>0.2797967078678167</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7021779836620022</v>
+        <v>0.7202032921321833</v>
       </c>
       <c r="D23" t="n">
-        <v>0.7021779836620022</v>
+        <v>0.7202032921321833</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1342,17 +1321,17 @@
     <row r="24">
       <c r="A24" s="11" t="inlineStr">
         <is>
-          <t>label_14670_1_61_17.fasta</t>
+          <t>label_14670_1_61_20.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.2963902179032301</v>
+        <v>0.2094230914356952</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7036097820967699</v>
+        <v>0.7905769085643048</v>
       </c>
       <c r="D24" t="n">
-        <v>0.7036097820967699</v>
+        <v>0.7905769085643048</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1363,17 +1342,17 @@
     <row r="25">
       <c r="A25" s="11" t="inlineStr">
         <is>
-          <t>label_14670_1_61_19.fasta</t>
+          <t>label_14670_1_61_7.fasta</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.2959289686117028</v>
+        <v>0.2649200853815009</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7040710313882972</v>
+        <v>0.7350799146184991</v>
       </c>
       <c r="D25" t="n">
-        <v>0.7040710313882972</v>
+        <v>0.7350799146184991</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1384,145 +1363,19 @@
     <row r="26">
       <c r="A26" s="11" t="inlineStr">
         <is>
-          <t>label_14670_1_61_21.fasta</t>
+          <t>label_14670_1_61_8.fasta</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.2758148653012076</v>
+        <v>0.2895647369095703</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7241851346987924</v>
+        <v>0.7104352630904297</v>
       </c>
       <c r="D26" t="n">
-        <v>0.7241851346987924</v>
+        <v>0.7104352630904297</v>
       </c>
       <c r="E26" t="inlineStr">
-        <is>
-          <t>s__Enterococcus_D sp002850555</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="11" t="inlineStr">
-        <is>
-          <t>label_14670_1_61_22.fasta</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>0.2712471782821321</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0.7287528217178679</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0.7287528217178679</v>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>s__Enterococcus_D sp002850555</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="11" t="inlineStr">
-        <is>
-          <t>label_14670_1_61_12.fasta</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>0.321495600797041</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0.678504399202959</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0.678504399202959</v>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>s__Enterococcus_D sp002850555</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="11" t="inlineStr">
-        <is>
-          <t>label_14670_1_61_15.fasta</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>0.2797967078678167</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0.7202032921321833</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0.7202032921321833</v>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>s__Enterococcus_D sp002850555</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="11" t="inlineStr">
-        <is>
-          <t>label_14670_1_61_20.fasta</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>0.2094230914356952</v>
-      </c>
-      <c r="C30" t="n">
-        <v>0.7905769085643048</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0.7905769085643048</v>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>s__Enterococcus_D sp002850555</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="11" t="inlineStr">
-        <is>
-          <t>label_14670_1_61_7.fasta</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>0.2649200853815009</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0.7350799146184991</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0.7350799146184991</v>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>s__Enterococcus_D sp002850555</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="11" t="inlineStr">
-        <is>
-          <t>label_14670_1_61_8.fasta</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>0.2895647369095703</v>
-      </c>
-      <c r="C32" t="n">
-        <v>0.7104352630904297</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0.7104352630904297</v>
-      </c>
-      <c r="E32" t="inlineStr">
         <is>
           <t>s__Enterococcus_D sp002850555</t>
         </is>
